--- a/LOGS/7d77670e-efd3-4763-ac7e-54a770a431a9/main_page_service_output/notes_standard_cropped_df.xlsx
+++ b/LOGS/7d77670e-efd3-4763-ac7e-54a770a431a9/main_page_service_output/notes_standard_cropped_df.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="42">
   <si>
     <t>line_item_0</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>Secured - at amortised cost</t>
+  </si>
+  <si>
+    <t>Fixed assets</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Deferred tax liability temporary differences</t>
   </si>
   <si>
     <t>Revenue &amp; reimbursements</t>
@@ -619,7 +628,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -651,10 +666,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>48588449</v>
@@ -668,10 +683,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>48588449</v>
@@ -685,10 +700,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>19201</v>
@@ -702,10 +717,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>156454</v>
@@ -719,10 +734,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>175655</v>
@@ -736,10 +751,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>45712841</v>
@@ -753,10 +768,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>45712841</v>
@@ -770,10 +785,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>121104</v>
@@ -787,10 +802,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>20199</v>
@@ -804,10 +819,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>141303</v>
@@ -1762,12 +1777,114 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>-1290143</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>199690</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>-1090453</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>-1168556</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>4972</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>-1163584</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>